--- a/medicine/Pharmacie/1872_en_santé_et_médecine/1872_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1872_en_santé_et_médecine/1872_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1872 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15 février : le médecin américain George Huntington décrit les symptômes de la maladie de Huntington  lors d’une conférence prononcée à la Meigs and Mason Academy de Middleport[1].
-Timothy Lewis découvre la filaire dans le sang de populations indiennes[2], parasite qu'il appellera Filaria sanguinis humanis (Mansonella perstans).
-Le dermatologue hongrois Moritz Kaposi fait la première description de la maladie de Kaposi[3]. Il distingue le « lupus discoïde » du « Lupus érythémateux disséminé »[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 février : le médecin américain George Huntington décrit les symptômes de la maladie de Huntington  lors d’une conférence prononcée à la Meigs and Mason Academy de Middleport.
+Timothy Lewis découvre la filaire dans le sang de populations indiennes, parasite qu'il appellera Filaria sanguinis humanis (Mansonella perstans).
+Le dermatologue hongrois Moritz Kaposi fait la première description de la maladie de Kaposi. Il distingue le « lupus discoïde » du « Lupus érythémateux disséminé ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15 février : Paul Topinard présente à la Société d'anthropologie, au nom de la Commission permanente pour l'Océanie, son Étude sur les races indigènes de l'Australie[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 février : Paul Topinard présente à la Société d'anthropologie, au nom de la Commission permanente pour l'Océanie, son Étude sur les races indigènes de l'Australie.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>21 avril : Charles Gandy (mort en 1943), médecin français.
 4 octobre : Ernest Fourneau (mort en 1949), chimiste et pharmacologue français.
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,13 +623,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>12 juin : Thomas Jerdon (né en 1811), médecin, botaniste et zoologiste britannique.
-22 août : Pierre Charles Alexandre Louis (né en 1787), médecin français, considéré comme le père spirituel de la médecine basée sur la preuve[6].
+22 août : Pierre Charles Alexandre Louis (né en 1787), médecin français, considéré comme le père spirituel de la médecine basée sur la preuve.
 24 octobre : Charles Daremberg (né en 1817), médecin, historien de la médecine et bibliothécaire français.
 23 novembre : Félix Voisin (né en 1794), neuropsychiatre français.
-6 décembre : Félix-Archimède Pouchet (né en 1800), médecin et biologiste français, adversaire des thèses de Louis Pasteur[7].</t>
+6 décembre : Félix-Archimède Pouchet (né en 1800), médecin et biologiste français, adversaire des thèses de Louis Pasteur.</t>
         </is>
       </c>
     </row>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Gillian Bates, Peter S. Harper, Lesley Jones, Huntington's Disease, Oxford University Press, 2002 (ISBN 9780198510604, présentation en ligne)
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1872_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1872_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +699,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En lien avec la santé publique et la médecine sociale de la décennie :
 Chronologie des faits économiques et sociaux dans les années 1870
